--- a/biology/Médecine/François-Étienne_L'Haridon_de_Créménec/François-Étienne_L'Haridon_de_Créménec.xlsx
+++ b/biology/Médecine/François-Étienne_L'Haridon_de_Créménec/François-Étienne_L'Haridon_de_Créménec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-%C3%89tienne_L%27Haridon_de_Cr%C3%A9m%C3%A9nec</t>
+          <t>François-Étienne_L'Haridon_de_Créménec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François–Étienne L'Haridon de Créménec, né en 1768 à Douarnenez et mort suicidé en 1807 dans la rivière Penfeld, est un médecin français qui participa à l'expédition vers les Terres australes que conduisit Nicolas Baudin au départ du Havre à compter du 19 octobre 1800.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-%C3%89tienne_L%27Haridon_de_Cr%C3%A9m%C3%A9nec</t>
+          <t>François-Étienne_L'Haridon_de_Créménec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il embarque à bord du Géographe[1], en tant qu'officier de santé de 2e classe faisant partie de l'état-major. Il est nommé par Baudin, qui l'apprécie particulièrement, officier de santé de première classe à Timor, le 27 octobre 1801[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il embarque à bord du Géographe, en tant qu'officier de santé de 2e classe faisant partie de l'état-major. Il est nommé par Baudin, qui l'apprécie particulièrement, officier de santé de première classe à Timor, le 27 octobre 1801.
 Il finit par s'installer à l'île de France, où il fut l'hôte de Matthew Flinders. On a donné son nom à la baie L'Haridon, une baie australienne que l'on trouve à l'intérieur du golfe de l'océan Indien que l'on appelle baie Shark.
 </t>
         </is>
